--- a/resources/table/class.xlsx
+++ b/resources/table/class.xlsx
@@ -2,35 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EEA0E9-C0ED-4105-A27A-7F2CCCD7DD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9112CED0-E402-435F-B679-5C44FDC24630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51E714AE-D231-4317-A66B-833316D0EFD8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{51E714AE-D231-4317-A66B-833316D0EFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="ability" sheetId="1" r:id="rId1"/>
     <sheet name="promotion" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -47,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>warrior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1200</t>
   </si>
   <si>
@@ -375,10 +356,6 @@
   </si>
   <si>
     <t>2600000000</t>
-  </si>
-  <si>
-    <t>thief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2160</t>
@@ -939,10 +916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>magicion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2100</t>
   </si>
   <si>
@@ -1175,10 +1148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ascetic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2240</t>
   </si>
   <si>
@@ -1318,10 +1287,6 @@
   </si>
   <si>
     <t>2130000000</t>
-  </si>
-  <si>
-    <t>*classes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>step</t>
@@ -1386,6 +1351,30 @@
   </si>
   <si>
     <t>진선</t>
+  </si>
+  <si>
+    <t>*CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WARRIOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THIEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGICION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASCETIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1800,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0974CDB6-B042-4597-8135-F5DEE2EA35B3}">
   <dimension ref="A1:H393"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A299" sqref="A299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1821,51 +1810,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1896,7 +1885,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2016,7 +2005,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2033,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2056,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2079,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -2102,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -2125,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -2148,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
@@ -2171,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
@@ -2194,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
@@ -2217,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
@@ -2240,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -2263,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -2286,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -2309,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -2332,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -2355,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -2378,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -2401,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -2424,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -2447,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2470,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -2493,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -2516,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2539,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2562,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
@@ -2585,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2608,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -2631,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -2654,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -2677,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -2700,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -2723,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2746,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2769,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2792,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2815,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2838,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2861,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2884,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2907,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2930,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -2953,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
@@ -2976,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2999,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -3022,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -3045,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
@@ -3068,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G56" s="3">
         <v>0</v>
@@ -3091,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -3114,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3137,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3160,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -3183,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3206,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3229,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
@@ -3252,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -3275,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -3298,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -3321,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -3344,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -3367,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -3390,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3413,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -3436,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
@@ -3459,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -3482,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -3505,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
@@ -3528,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -3551,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G77" s="3">
         <v>0</v>
@@ -3574,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G78" s="3">
         <v>0</v>
@@ -3597,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -3620,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G80" s="3">
         <v>0</v>
@@ -3643,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3666,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G82" s="3">
         <v>0</v>
@@ -3689,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3712,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G84" s="3">
         <v>0</v>
@@ -3735,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G85" s="3">
         <v>0</v>
@@ -3758,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G86" s="3">
         <v>0</v>
@@ -3781,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G87" s="3">
         <v>0</v>
@@ -3804,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G88" s="3">
         <v>0</v>
@@ -3827,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -3850,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G90" s="3">
         <v>0</v>
@@ -3873,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3896,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G92" s="3">
         <v>0</v>
@@ -3919,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G93" s="3">
         <v>0</v>
@@ -3942,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3965,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -3988,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -4011,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G97" s="3">
         <v>0</v>
@@ -4034,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G98" s="3">
         <v>0</v>
@@ -4057,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G99" s="3">
         <v>0</v>
@@ -4080,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -4103,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -4126,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -4149,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G103" s="3">
         <v>0</v>
@@ -4172,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G104" s="3">
         <v>0</v>
@@ -4195,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G105" s="3">
         <v>0</v>
@@ -4206,6572 +4195,6572 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>294</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B154" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B160" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B161" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B162" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B163" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B164" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B165" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B166" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B167" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B174" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B175" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="187" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B187" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B188" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B200" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B201" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>108</v>
+        <v>438</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B203" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B204" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B205" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C205" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F205" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="G205" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B206" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B211" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="212" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B212" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B213" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="214" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B214" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B215" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B216" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B217" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="218" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B218" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B219" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="220" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B220" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="221" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B221" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B222" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B223" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B224" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="225" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B225" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="226" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B226" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="227" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B227" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="228" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="229" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B229" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="230" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B230" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="231" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B231" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="232" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B232" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="233" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B233" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="234" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B234" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B235" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B236" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B237" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B238" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B239" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B240" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B241" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="242" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B242" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="243" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B243" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B244" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="245" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B245" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B246" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="247" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B247" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B248" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B249" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B250" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B251" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B252" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B253" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B254" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B255" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B256" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B257" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B258" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B259" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B260" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B261" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B262" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H262" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B263" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="264" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B264" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H264" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B265" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H265" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B266" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B267" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H267" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B268" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B269" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H269" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B270" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B271" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="272" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B272" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H272" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B273" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H273" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B274" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B275" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H275" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B276" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H276" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B277" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B278" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B279" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H279" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B280" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B281" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="282" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B282" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B283" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B284" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="285" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B285" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B286" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B287" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B288" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H288" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B289" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B290" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B291" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B292" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B293" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B294" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B295" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B296" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B297" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B299" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B300" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H300" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B301" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E301" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B302" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B303" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B304" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="305" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B305" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="306" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B306" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="307" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B307" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="308" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B308" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="309" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B309" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="310" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B310" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="311" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B311" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="312" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B312" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="313" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B313" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F313" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="314" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B314" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="315" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B315" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="316" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B316" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="317" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B317" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="318" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B318" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="319" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B319" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="320" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B320" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="321" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B321" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G321" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="322" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B322" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G322" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="323" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B323" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G323" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="324" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B324" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="325" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B325" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F325" s="3" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G325" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="326" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B326" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F326" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="327" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B327" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G327" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="328" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B328" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="329" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B329" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G329" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="330" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B330" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="331" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B331" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G331" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="332" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B332" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="333" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B333" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G333" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="334" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B334" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F334" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="335" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B335" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G335" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="336" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B336" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="337" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B337" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G337" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B338" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F338" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="339" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B339" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G339" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="340" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B340" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F340" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="341" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B341" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F341" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G341" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="342" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B342" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="343" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B343" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E343" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G343" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="344" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B344" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E344" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="345" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B345" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="346" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B346" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="347" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B347" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G347" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="348" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B348" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E348" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="349" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B349" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G349" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="350" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B350" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="351" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B351" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F351" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G351" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="352" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B352" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="353" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B353" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G353" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="354" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B354" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="355" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B355" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="356" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B356" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E356" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="357" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B357" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F357" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G357" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="358" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B358" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="359" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B359" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G359" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="360" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B360" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E360" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="361" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B361" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E361" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G361" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="362" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B362" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E362" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="363" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B363" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G363" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="364" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B364" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="365" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B365" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G365" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="366" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B366" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="367" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B367" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G367" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="368" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B368" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="369" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B369" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G369" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="370" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B370" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E370" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="371" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B371" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="372" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B372" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="373" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B373" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="374" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B374" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="375" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B375" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="376" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B376" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="377" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B377" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G377" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="378" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B378" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="379" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B379" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G379" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="380" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B380" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F380" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="381" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B381" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G381" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="382" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B382" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="383" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B383" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G383" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="384" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B384" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F384" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="385" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B385" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F385" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G385" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="386" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B386" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="387" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B387" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E387" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G387" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="388" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B388" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E388" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="389" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B389" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G389" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="390" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B390" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E390" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="391" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B391" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="392" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B392" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="393" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B393" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F393" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -10784,8 +10773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2327955C-FD8A-432B-A35E-99A4B91717A2}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -10798,15 +10787,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -10819,7 +10808,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -10827,7 +10816,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -10835,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -10843,7 +10832,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -10851,7 +10840,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -10859,12 +10848,12 @@
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -10872,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -10880,7 +10869,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -10888,7 +10877,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -10896,7 +10885,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -10904,12 +10893,12 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>294</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -10917,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -10925,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -10933,7 +10922,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -10941,7 +10930,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -10949,12 +10938,12 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>372</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -10962,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -10970,7 +10959,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -10978,7 +10967,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -10986,7 +10975,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -10994,7 +10983,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/resources/table/class.xlsx
+++ b/resources/table/class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9112CED0-E402-435F-B679-5C44FDC24630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4265A8-A16C-44E3-BAB6-FA19E8B60EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{51E714AE-D231-4317-A66B-833316D0EFD8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{51E714AE-D231-4317-A66B-833316D0EFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="ability" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="444">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1374,6 +1374,14 @@
   </si>
   <si>
     <t>NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1789,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0974CDB6-B042-4597-8135-F5DEE2EA35B3}">
   <dimension ref="A1:H393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+    <sheetView topLeftCell="A274" workbookViewId="0">
       <selection activeCell="A299" sqref="A299"/>
     </sheetView>
   </sheetViews>
@@ -10773,8 +10781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2327955C-FD8A-432B-A35E-99A4B91717A2}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -10789,6 +10797,9 @@
       <c r="B1" s="1" t="s">
         <v>415</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -10797,12 +10808,18 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/resources/table/class.xlsx
+++ b/resources/table/class.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshyeon\fb\resources\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\CSHYEON\Data\git\game\c++\fb\resources\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4265A8-A16C-44E3-BAB6-FA19E8B60EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D2D17C-58CC-4801-A2CF-8035CE2D9C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1" xr2:uid="{51E714AE-D231-4317-A66B-833316D0EFD8}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{51E714AE-D231-4317-A66B-833316D0EFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="ability" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="445">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1382,6 +1382,10 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,7 +1393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1422,6 +1426,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1445,7 +1457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,6 +1471,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10779,10 +10794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2327955C-FD8A-432B-A35E-99A4B91717A2}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -10824,182 +10839,199 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>438</v>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>423</v>
+      <c r="A14" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>439</v>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>428</v>
+      <c r="A21" s="1" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>440</v>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>433</v>
+      <c r="A28" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>435</v>
       </c>
     </row>
